--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,41 @@
         <v>8042400</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4524200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,6 +903,41 @@
         <v>4524200</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4299300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +938,41 @@
         <v>4299300</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27529300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +973,41 @@
         <v>27529300</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61401500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,6 +1008,41 @@
         <v>61401500</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I19" t="n">
+        <v>72393100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,41 @@
         <v>72393100</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27554100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,6 +1078,41 @@
         <v>27554100</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I21" t="n">
+        <v>160253900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,41 @@
         <v>160253900</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I22" t="n">
+        <v>138985200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,6 +1148,41 @@
         <v>138985200</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I23" t="n">
+        <v>45205700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,6 +1183,41 @@
         <v>45205700</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45370600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,6 +1218,41 @@
         <v>45370600</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I25" t="n">
+        <v>44107300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,6 +1253,41 @@
         <v>44107300</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I26" t="n">
+        <v>117637900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,6 +1288,76 @@
         <v>117637900</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I27" t="n">
+        <v>97200800</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I28" t="n">
+        <v>63846900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,6 +1358,76 @@
         <v>63846900</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I29" t="n">
+        <v>33610100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I30" t="n">
+        <v>43564500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,6 +1428,41 @@
         <v>43564500</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I31" t="n">
+        <v>26810800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,6 +1463,41 @@
         <v>26810800</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22399200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,6 +1498,41 @@
         <v>22399200</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21153300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,6 +1533,41 @@
         <v>21153300</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32306300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1568,6 +1568,76 @@
         <v>32306300</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I35" t="n">
+        <v>18807600</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20344400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1638,6 +1638,41 @@
         <v>20344400</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7304700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,6 +1673,41 @@
         <v>7304700</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16029000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1708,6 +1708,41 @@
         <v>16029000</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11280500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,6 +1743,41 @@
         <v>11280500</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13562400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,6 +1778,41 @@
         <v>13562400</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6373900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1813,6 +1813,41 @@
         <v>6373900</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6769600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,6 +1848,41 @@
         <v>6769600</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9822400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1883,6 +1883,41 @@
         <v>9822400</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5296900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,6 +1918,41 @@
         <v>5296900</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7477600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,6 +1953,41 @@
         <v>7477600</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9592400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,6 +1988,41 @@
         <v>9592400</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4864700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2023,6 +2023,41 @@
         <v>4864700</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8595100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,6 +2058,41 @@
         <v>8595100</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2586000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2093,6 +2093,41 @@
         <v>2586000</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11924400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,6 +2128,41 @@
         <v>11924400</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I51" t="n">
+        <v>15797400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,6 +2163,41 @@
         <v>15797400</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4026200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2198,6 +2198,41 @@
         <v>4026200</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2446200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2233,6 +2233,41 @@
         <v>2446200</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8591300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2268,6 +2268,41 @@
         <v>8591300</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I55" t="n">
+        <v>30507000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2303,6 +2303,41 @@
         <v>30507000</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I56" t="n">
+        <v>21071700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2338,6 +2338,41 @@
         <v>21071700</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6327800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,6 +2373,41 @@
         <v>6327800</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5996500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2408,6 +2408,41 @@
         <v>5996500</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3893400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2443,6 +2443,41 @@
         <v>3893400</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8270700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,6 +2478,41 @@
         <v>8270700</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6411400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,6 +2513,41 @@
         <v>6411400</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3140400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,6 +2548,41 @@
         <v>3140400</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17669200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2583,6 +2583,76 @@
         <v>17669200</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13583500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5836200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,6 +2653,41 @@
         <v>5836200</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4624000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2688,6 +2688,111 @@
         <v>4624000</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3990900</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I68" t="n">
+        <v>19988500</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I69" t="n">
+        <v>123082100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2793,6 +2793,41 @@
         <v>123082100</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I70" t="n">
+        <v>60820200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2828,6 +2828,41 @@
         <v>60820200</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19512900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0217.xlsx
+++ b/data/0217.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2863,6 +2863,111 @@
         <v>19512900</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I72" t="n">
+        <v>14229100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15839100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0217</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PWRWELL</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21887700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
